--- a/test_data/Kohl's_data.xlsx
+++ b/test_data/Kohl's_data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lnttsgroup-my.sharepoint.com/personal/surya_v_ltts_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caption_project\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{95E57F56-7621-425E-8E40-CBB0C8455B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40724EE-2A67-4040-932A-EF2C1437511E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{796F578A-074F-4C59-A03E-5B9AC8FE882E}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{796F578A-074F-4C59-A03E-5B9AC8FE882E}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidKohl'sLoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidKohl'sLoginTest" sheetId="2" r:id="rId2"/>
+    <sheet name="AddToCartValidTest" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>${expected_element}</t>
   </si>
@@ -58,6 +59,12 @@
   </si>
   <si>
     <t>Please enter valid email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${expected_text}</t>
+  </si>
+  <si>
+    <t>Item added to Cart</t>
   </si>
 </sst>
 </file>
@@ -468,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C3B0C-F90B-44AC-A4CE-31B62F36D251}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -506,6 +513,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C22AD79-C059-453C-9A8C-999CD2DD3446}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{078126F2-F558-4C23-BF54-ECE66671D058}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -513,15 +566,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100473886CE3E0FCE4988A11E54414D9CB3" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="119cf550e2828620b698c28389428dbf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a74ae017-e539-45a4-a61b-be418639ea0f" xmlns:ns4="419e1b46-a6bc-424d-b80f-568d69415333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4bdeb50d44d04a035d1c0fd0613f69b" ns3:_="" ns4:_="">
     <xsd:import namespace="a74ae017-e539-45a4-a61b-be418639ea0f"/>
@@ -718,6 +762,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A03249-67B1-4223-9854-C3CE1C8F39A7}">
   <ds:schemaRefs>
@@ -728,14 +781,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27EF24D-7C63-49FD-9F2E-53CD5AEA6026}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE5B0D0-13F6-4F8A-9835-702CF0F4AEA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -752,4 +797,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27EF24D-7C63-49FD-9F2E-53CD5AEA6026}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test_data/Kohl's_data.xlsx
+++ b/test_data/Kohl's_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caption_project\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40724EE-2A67-4040-932A-EF2C1437511E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC8DFF2-23CC-45F0-8BFB-00B2AE3191D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{796F578A-074F-4C59-A03E-5B9AC8FE882E}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{796F578A-074F-4C59-A03E-5B9AC8FE882E}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidKohl'sLoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidKohl'sLoginTest" sheetId="2" r:id="rId2"/>
     <sheet name="AddToCartValidTest" sheetId="3" r:id="rId3"/>
+    <sheet name="CheckoutTest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>${expected_element}</t>
   </si>
@@ -65,6 +66,42 @@
   </si>
   <si>
     <t>Item added to Cart</t>
+  </si>
+  <si>
+    <t>${title}</t>
+  </si>
+  <si>
+    <t>Shopping Bag - Kohls.com</t>
+  </si>
+  <si>
+    <t>${test_case}</t>
+  </si>
+  <si>
+    <t>aabbcc</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>#Abcd</t>
+  </si>
+  <si>
+    <t>Aabbcc</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>${Coupon}</t>
+  </si>
+  <si>
+    <t>SAVEMOREE</t>
   </si>
 </sst>
 </file>
@@ -473,37 +510,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C3B0C-F90B-44AC-A4CE-31B62F36D251}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>123</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -517,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C22AD79-C059-453C-9A8C-999CD2DD3446}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,13 +632,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D046E22-7CD1-4DCC-BAA2-FF9A3096BCEC}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{141F0CB1-8540-4988-A988-AE8610A082C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100473886CE3E0FCE4988A11E54414D9CB3" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="119cf550e2828620b698c28389428dbf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a74ae017-e539-45a4-a61b-be418639ea0f" xmlns:ns4="419e1b46-a6bc-424d-b80f-568d69415333" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4bdeb50d44d04a035d1c0fd0613f69b" ns3:_="" ns4:_="">
     <xsd:import namespace="a74ae017-e539-45a4-a61b-be418639ea0f"/>
@@ -762,6 +882,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -772,15 +898,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A03249-67B1-4223-9854-C3CE1C8F39A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE5B0D0-13F6-4F8A-9835-702CF0F4AEA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -799,6 +916,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A03249-67B1-4223-9854-C3CE1C8F39A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27EF24D-7C63-49FD-9F2E-53CD5AEA6026}">
   <ds:schemaRefs>
